--- a/Files/Groepskas 2324.xlsx
+++ b/Files/Groepskas 2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E629AF-AE4D-41C0-A4F6-AC307482CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE75C7B-945E-4C69-8606-EC4210D02B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -213,6 +213,12 @@
     <t>-3187.96</t>
   </si>
   <si>
+    <t>VYVEY - ALLEWEIRELDT: BBQ 72</t>
+  </si>
+  <si>
+    <t>VYVEY - ALLEWEIRELDT: g</t>
+  </si>
+  <si>
     <t>CLOET ARNE - OPGENHAFFEN SILKE: Payconiq cd93195bac02c479d619f153 Scouts St.-Johannes     5a2133647268-4d4b-a19c-916a9ac3adc1 BBQ 2023 - 5a213364-7268-4d4b-a19c-916a9ac3adc</t>
   </si>
   <si>
@@ -565,9 +571,6 @@
   </si>
   <si>
     <t>DE PAEP - GALLE: terugbetaling dubbele inschrijving groepsreis Marlies Sander Jolien</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1150,7 +1153,7 @@
   <dimension ref="A1:F995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>19443.240000000002</v>
+        <v>10775.11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
@@ -1242,7 +1245,7 @@
       <c r="B14" s="4"/>
       <c r="D14" s="9">
         <f>SUM(B:B)</f>
-        <v>19943.240000000002</v>
+        <v>11275.11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2675,7 @@
       </c>
       <c r="E3" s="2">
         <f>SUM((B:B))</f>
-        <v>3584.9</v>
+        <v>3695.65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,10 +3093,20 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="13">
+        <v>94.75</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
@@ -3685,10 +3698,10 @@
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B253" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,10 +3714,10 @@
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,10 +3730,10 @@
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B257" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,10 +3746,10 @@
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3749,10 +3762,10 @@
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B261" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4544,7 +4557,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="13">
         <v>23</v>
@@ -4552,7 +4565,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="13">
         <v>14</v>
@@ -4562,12 +4575,12 @@
       </c>
       <c r="E3" s="2">
         <f>SUM((B:B))</f>
-        <v>0</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="13">
         <v>10</v>
@@ -4579,7 +4592,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" s="13">
         <v>40</v>
@@ -4587,7 +4600,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" s="13">
         <v>20</v>
@@ -4595,7 +4608,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" s="13">
         <v>20</v>
@@ -4603,7 +4616,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="13">
         <v>20</v>
@@ -4611,7 +4624,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" s="13">
         <v>20</v>
@@ -4619,7 +4632,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" s="13">
         <v>10</v>
@@ -4627,7 +4640,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="13">
         <v>13</v>
@@ -4635,7 +4648,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" s="13">
         <v>20</v>
@@ -4643,7 +4656,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="13">
         <v>40</v>
@@ -4651,7 +4664,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="13">
         <v>1.5</v>
@@ -4659,7 +4672,7 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" s="13">
         <v>5</v>
@@ -4667,7 +4680,7 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="13">
         <v>10</v>
@@ -4675,7 +4688,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" s="13">
         <v>10</v>
@@ -4683,7 +4696,7 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
@@ -4691,7 +4704,7 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="13">
         <v>20</v>
@@ -4699,7 +4712,7 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" s="13">
         <v>20</v>
@@ -4707,7 +4720,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="13">
         <v>20</v>
@@ -4715,7 +4728,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" s="13">
         <v>10</v>
@@ -4723,7 +4736,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" s="13">
         <v>10</v>
@@ -4731,7 +4744,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="13">
         <v>40</v>
@@ -4739,7 +4752,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B25" s="13">
         <v>20</v>
@@ -4747,7 +4760,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" s="13">
         <v>119</v>
@@ -4755,7 +4768,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B27" s="13">
         <v>5</v>
@@ -4763,7 +4776,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28" s="13">
         <v>10</v>
@@ -4771,7 +4784,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="13">
         <v>14</v>
@@ -4779,7 +4792,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="13">
         <v>40</v>
@@ -4787,7 +4800,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B31" s="13">
         <v>5</v>
@@ -4795,7 +4808,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" s="13">
         <v>20</v>
@@ -4803,7 +4816,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B33" s="13">
         <v>20</v>
@@ -4811,7 +4824,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B34" s="13">
         <v>10</v>
@@ -4819,7 +4832,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B35" s="13">
         <v>10</v>
@@ -4827,7 +4840,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" s="13">
         <v>20</v>
@@ -4835,7 +4848,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" s="13">
         <v>23</v>
@@ -4843,7 +4856,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" s="13">
         <v>26</v>
@@ -4851,7 +4864,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" s="13">
         <v>772.12</v>
@@ -4859,7 +4872,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B40" s="13">
         <v>10</v>
@@ -4867,7 +4880,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B41" s="13">
         <v>46</v>
@@ -4875,7 +4888,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B42" s="13">
         <v>20</v>
@@ -4883,7 +4896,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B43" s="13">
         <v>77</v>
@@ -4891,7 +4904,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" s="13">
         <v>20</v>
@@ -4899,7 +4912,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B45" s="13">
         <v>72</v>
@@ -4907,7 +4920,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B46" s="13">
         <v>36</v>
@@ -4915,7 +4928,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B47" s="13">
         <v>20</v>
@@ -4923,7 +4936,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B48" s="13">
         <v>64</v>
@@ -4931,7 +4944,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="13">
         <v>10</v>
@@ -4939,7 +4952,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="13">
         <v>10</v>
@@ -4947,7 +4960,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="13">
         <v>28</v>
@@ -4955,17 +4968,27 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="13">
         <v>-1928.62</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="13">
+        <v>94.75</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -5467,18 +5490,18 @@
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B221" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B222" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,7 +6339,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" s="13">
         <v>8</v>
@@ -6324,7 +6347,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="13">
         <v>16</v>
@@ -6339,7 +6362,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="13">
         <v>24</v>
@@ -6348,12 +6371,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" s="13">
         <v>8</v>
@@ -6361,7 +6384,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B6" s="13">
         <v>33</v>
@@ -6369,7 +6392,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="13">
         <v>8</v>
@@ -6377,7 +6400,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" s="13">
         <v>16</v>
@@ -6385,7 +6408,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="13">
         <v>24</v>
@@ -6393,7 +6416,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B10" s="13">
         <v>8</v>
@@ -6401,7 +6424,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="13">
         <v>24</v>
@@ -6409,7 +6432,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B12" s="13">
         <v>16</v>
@@ -6417,7 +6440,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13">
         <v>8</v>
@@ -6425,7 +6448,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" s="13">
         <v>8</v>
@@ -6433,7 +6456,7 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B15" s="13">
         <v>8</v>
@@ -6441,7 +6464,7 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B16" s="13">
         <v>8</v>
@@ -6449,7 +6472,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B17" s="13">
         <v>32</v>
@@ -6457,7 +6480,7 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B18" s="13">
         <v>8</v>
@@ -6465,7 +6488,7 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B19" s="13">
         <v>8</v>
@@ -6473,7 +6496,7 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B20" s="13">
         <v>8</v>
@@ -6481,7 +6504,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" s="13">
         <v>8</v>
@@ -6489,7 +6512,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22" s="13">
         <v>8</v>
@@ -6497,7 +6520,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B23" s="13">
         <v>8</v>
@@ -6505,7 +6528,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B24" s="13">
         <v>8</v>
@@ -6513,7 +6536,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="13">
         <v>16</v>
@@ -6521,7 +6544,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B26" s="13">
         <v>8</v>
@@ -6529,7 +6552,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B27" s="13">
         <v>8</v>
@@ -6537,7 +6560,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="13">
         <v>8</v>
@@ -6545,7 +6568,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B29" s="13">
         <v>8</v>
@@ -6553,7 +6576,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B30" s="13">
         <v>16</v>
@@ -6561,7 +6584,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B31" s="13">
         <v>8</v>
@@ -6569,7 +6592,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B32" s="13">
         <v>8</v>
@@ -6577,7 +6600,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B33" s="13">
         <v>-623</v>
@@ -6585,7 +6608,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B34" s="13">
         <v>8</v>
@@ -6593,7 +6616,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B35" s="13">
         <v>16</v>
@@ -6601,7 +6624,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B36" s="13">
         <v>8</v>
@@ -6609,7 +6632,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B37" s="13">
         <v>8</v>
@@ -6617,7 +6640,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B38" s="13">
         <v>8</v>
@@ -6625,7 +6648,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B39" s="13">
         <v>8</v>
@@ -6633,7 +6656,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B40" s="13">
         <v>8</v>
@@ -6641,7 +6664,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B41" s="13">
         <v>8</v>
@@ -6649,7 +6672,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B42" s="13">
         <v>8</v>
@@ -6657,7 +6680,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B43" s="13">
         <v>32</v>
@@ -6665,7 +6688,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B44" s="13">
         <v>8</v>
@@ -6673,7 +6696,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B45" s="13">
         <v>8</v>
@@ -6681,7 +6704,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B46" s="13">
         <v>16</v>
@@ -6689,7 +6712,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B47" s="13">
         <v>8</v>
@@ -6697,7 +6720,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B48" s="13">
         <v>8</v>
@@ -6705,7 +6728,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B49" s="13">
         <v>8</v>
@@ -6713,7 +6736,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B50" s="13">
         <v>8</v>
@@ -6721,7 +6744,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B51" s="13">
         <v>8</v>
@@ -6729,7 +6752,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B52" s="13">
         <v>8</v>
@@ -6737,7 +6760,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B53" s="13">
         <v>8</v>
@@ -6745,7 +6768,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B54" s="13">
         <v>8</v>
@@ -6753,7 +6776,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B55" s="13">
         <v>24</v>
@@ -6761,7 +6784,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B56" s="13">
         <v>8</v>
@@ -6769,7 +6792,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B57" s="13">
         <v>8</v>
@@ -6777,7 +6800,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B58" s="13">
         <v>-50.15</v>
@@ -6785,7 +6808,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B59" s="13">
         <v>8</v>
@@ -6793,7 +6816,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B60" s="13">
         <v>-7.98</v>
@@ -6801,7 +6824,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B61" s="13">
         <v>-24</v>
@@ -8088,7 +8111,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
@@ -8168,56 +8191,53 @@
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="I32" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>

--- a/Files/Groepskas 2324.xlsx
+++ b/Files/Groepskas 2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE75C7B-945E-4C69-8606-EC4210D02B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36168CAE-EDA4-4E5D-8189-BD78EAEB1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Files/Groepskas 2324.xlsx
+++ b/Files/Groepskas 2324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36168CAE-EDA4-4E5D-8189-BD78EAEB1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA7F352-C80F-4CB5-9606-148AC3CC2C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,12 @@
     <sheet name="Groepsreis" sheetId="4" r:id="rId4"/>
     <sheet name="Sjabloon" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="178">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -4575,7 +4562,7 @@
       </c>
       <c r="E3" s="2">
         <f>SUM((B:B))</f>
-        <v>110.75</v>
+        <v>126.75</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,7 +4978,12 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>

--- a/Files/Groepskas 2324.xlsx
+++ b/Files/Groepskas 2324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA7F352-C80F-4CB5-9606-148AC3CC2C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701DD0B8-9FBD-4512-AA11-213AAB08171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="1" r:id="rId1"/>
